--- a/autoast/5_jobs.xlsx
+++ b/autoast/5_jobs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="43">
   <si>
     <t>Northeast</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>\\spatialfiles.bcgov\work\srm\nel\Local\Geomatics\Workarea\csostad\WildLifePermittingTest\AST_TEST\7-55</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>0307321</t>
@@ -226,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -264,6 +267,9 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -272,6 +278,9 @@
     </xf>
     <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -608,18 +617,18 @@
   <cols>
     <col min="1" max="1" style="5" width="23.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="5" width="138.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="13" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="13" width="16.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="13" width="17.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="14" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="14" width="16.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="14" width="17.290714285714284" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="5" width="110.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="14" width="29.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="14" width="26.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="15" width="29.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="15" width="26.005" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="15" width="34.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="14" width="26.005" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="14" width="21.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="15" width="13.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="15" width="26.005" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="15" width="21.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="16" width="13.719285714285713" customWidth="1" bestFit="1"/>
     <col min="13" max="13" style="5" width="14.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="5" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="17" width="11.576428571428572" customWidth="1" bestFit="1"/>
     <col min="15" max="15" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
@@ -648,7 +657,7 @@
       <c r="H1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>18</v>
       </c>
       <c r="J1" s="8" t="s">
@@ -685,13 +694,13 @@
         <v>3</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>3</v>
@@ -699,7 +708,9 @@
       <c r="L2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="3"/>
+      <c r="M2" s="13" t="s">
+        <v>26</v>
+      </c>
       <c r="N2" s="12"/>
       <c r="O2" s="10"/>
     </row>
@@ -709,36 +720,38 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="M3" s="3"/>
       <c r="N3" s="10"/>
       <c r="O3" s="2"/>
     </row>
@@ -748,25 +761,25 @@
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>3</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>1</v>
@@ -777,7 +790,9 @@
       <c r="L4" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="M4" s="3"/>
+      <c r="M4" s="13" t="s">
+        <v>26</v>
+      </c>
       <c r="N4" s="12"/>
       <c r="O4" s="10"/>
     </row>
@@ -787,25 +802,25 @@
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>3</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>1</v>
@@ -816,7 +831,9 @@
       <c r="L5" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="M5" s="3"/>
+      <c r="M5" s="13" t="s">
+        <v>26</v>
+      </c>
       <c r="N5" s="12"/>
       <c r="O5" s="10"/>
     </row>
@@ -826,25 +843,25 @@
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>3</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>1</v>
@@ -855,7 +872,9 @@
       <c r="L6" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="M6" s="3"/>
+      <c r="M6" s="13" t="s">
+        <v>26</v>
+      </c>
       <c r="N6" s="10"/>
       <c r="O6" s="2"/>
     </row>
